--- a/LECTURAS y DATA/Semana 2/dataSemana2/edaIntro.xlsx
+++ b/LECTURAS y DATA/Semana 2/dataSemana2/edaIntro.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/InvestEstad_II/LECTURAS/Semana 2/dataSemana2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JoseManuel/Documents/GITHUBs/PUCP/InvestEstad_II/LECTURAS y DATA/Semana 2/dataSemana2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -4488,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4953,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
